--- a/11.29/新建 Microsoft Excel 工作表 (自动保存的).xlsx
+++ b/11.29/新建 Microsoft Excel 工作表 (自动保存的).xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -471,14 +470,14 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>632</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1">
         <v>19</v>
@@ -486,10 +485,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -498,7 +497,7 @@
       </c>
       <c r="G3">
         <f>B2/(B2+B1)</f>
-        <v>0.90452261306532666</v>
+        <v>0.57777777777777772</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -507,7 +506,7 @@
       </c>
       <c r="G4">
         <f>A1/(A1+A2)</f>
-        <v>0.97832817337461297</v>
+        <v>0.78927203065134099</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -516,7 +515,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I5" s="2">
         <f>G4/2</f>
-        <v>0.48916408668730649</v>
+        <v>0.3946360153256705</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -542,27 +541,27 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G9" s="2">
         <f>B2/(B2+A2)</f>
-        <v>0.92783505154639179</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="H9" s="2">
         <f>B2/(B1+B2)</f>
-        <v>0.90452261306532666</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="I9" s="2">
         <f>(A1+B2)/(B1+B2+A1+A2)</f>
-        <v>0.96094674556213022</v>
+        <v>0.75816993464052285</v>
       </c>
       <c r="J9" s="2">
         <f>2/(1/H9+1/G9)</f>
-        <v>0.9160305343511449</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="K9" s="2">
         <f>(G3+G4)/2</f>
-        <v>0.94142539321996987</v>
+        <v>0.68352490421455936</v>
       </c>
       <c r="L9" s="2">
         <f>ROUND(SQRT(G3*G4),3)</f>
-        <v>0.94099999999999995</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">

--- a/11.29/新建 Microsoft Excel 工作表 (自动保存的).xlsx
+++ b/11.29/新建 Microsoft Excel 工作表 (自动保存的).xlsx
@@ -470,25 +470,25 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G9" sqref="G9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>206</v>
+        <v>20698</v>
       </c>
       <c r="B1" s="1">
-        <v>19</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>3237</v>
       </c>
       <c r="B2" s="1">
-        <v>26</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -497,7 +497,7 @@
       </c>
       <c r="G3">
         <f>B2/(B2+B1)</f>
-        <v>0.57777777777777772</v>
+        <v>0.55959828778399734</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -506,7 +506,7 @@
       </c>
       <c r="G4">
         <f>A1/(A1+A2)</f>
-        <v>0.78927203065134099</v>
+        <v>0.86475872153749744</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -515,7 +515,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I5" s="2">
         <f>G4/2</f>
-        <v>0.3946360153256705</v>
+        <v>0.43237936076874872</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -541,27 +541,27 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G9" s="2">
         <f>B2/(B2+A2)</f>
-        <v>0.32098765432098764</v>
+        <v>0.51220614828209765</v>
       </c>
       <c r="H9" s="2">
         <f>B2/(B1+B2)</f>
-        <v>0.57777777777777772</v>
+        <v>0.55959828778399734</v>
       </c>
       <c r="I9" s="2">
         <f>(A1+B2)/(B1+B2+A1+A2)</f>
-        <v>0.75816993464052285</v>
+        <v>0.80299243560265254</v>
       </c>
       <c r="J9" s="2">
         <f>2/(1/H9+1/G9)</f>
-        <v>0.41269841269841268</v>
+        <v>0.53485444531864679</v>
       </c>
       <c r="K9" s="2">
         <f>(G3+G4)/2</f>
-        <v>0.68352490421455936</v>
+        <v>0.71217850466074739</v>
       </c>
       <c r="L9" s="2">
         <f>ROUND(SQRT(G3*G4),3)</f>
-        <v>0.67500000000000004</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
